--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\115\13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\программы\информатика\Практикум 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC840D84-C3F9-470B-A00A-29C785F95752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="6360" yWindow="7635" windowWidth="28800" windowHeight="15435" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="январь" sheetId="1" r:id="rId1"/>
@@ -23,9 +24,9 @@
     <sheet name="сентябрь" sheetId="9" r:id="rId9"/>
     <sheet name="октябрь" sheetId="11" r:id="rId10"/>
     <sheet name="ноябрь" sheetId="12" r:id="rId11"/>
-    <sheet name="декабрь" sheetId="13" r:id="rId12"/>
+    <sheet name="декабрь" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>Это первая строка   Это вторая строка</t>
   </si>
@@ -212,13 +213,82 @@
   </si>
   <si>
     <t>Галкин</t>
+  </si>
+  <si>
+    <t>Расчёт вознаграждения</t>
+  </si>
+  <si>
+    <t>Объём сделки</t>
+  </si>
+  <si>
+    <t>Размер вознаграждения</t>
+  </si>
+  <si>
+    <t>Объём вознаграждения</t>
+  </si>
+  <si>
+    <t>ОБЩИЕ СВЕДЕНИЯ О ПЛАНЕТЕ ЗЕМЛЯ</t>
+  </si>
+  <si>
+    <t>Среднее расстояние от Земли до Солнца, км</t>
+  </si>
+  <si>
+    <t>Среднее расстояние от Земли до Луны, км</t>
+  </si>
+  <si>
+    <t>Время полного оборота Земли вокруг своей оси, час:мин:сек</t>
+  </si>
+  <si>
+    <t>Период вращения Земли вокруг Солнца, суток</t>
+  </si>
+  <si>
+    <t>Средняя скорость движения Земли по орбите, км/сек</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Метро</t>
+  </si>
+  <si>
+    <t>Автобус</t>
+  </si>
+  <si>
+    <t>Троллейбус</t>
+  </si>
+  <si>
+    <t>Трамвай</t>
+  </si>
+  <si>
+    <t>Стоимость одной поездки</t>
+  </si>
+  <si>
+    <t>Всего за неделю</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,8 +304,45 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,10 +451,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -350,19 +465,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="255"/>
@@ -385,22 +488,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,14 +850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,58 +876,262 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="29">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="26">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="30">
+        <f>B2*B3</f>
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="34">
+        <v>149600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="34">
+        <v>384000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0.9972685185185185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="33">
+        <v>365.25599999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="36">
+        <v>29.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA5C1C2-450D-40D4-81E4-F37DB57B97ED}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="24"/>
+      <c r="F6" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -775,11 +1144,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -801,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -814,7 +1183,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -822,37 +1191,37 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
+      <c r="B3" s="20"/>
       <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
+      <c r="B4" s="20"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="B5" s="20"/>
       <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
+      <c r="B6" s="20"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -866,7 +1235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
@@ -879,14 +1248,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -898,7 +1267,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -912,7 +1281,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
+      <c r="B5" s="21"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -924,7 +1293,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="21"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -936,7 +1305,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
+      <c r="B7" s="21"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -948,7 +1317,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
+      <c r="B8" s="21"/>
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -960,7 +1329,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
+      <c r="B9" s="21"/>
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -972,7 +1341,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="B10" s="21"/>
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -993,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1006,10 +1375,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" ht="166.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1019,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1037,51 +1406,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="11">
         <v>250</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>0.7</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>4.7</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>16</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1110,237 +1479,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="15">
         <v>24</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <v>22</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="16">
         <f>B3*C3*D3</f>
         <v>4224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>16</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>7</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>18</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <f t="shared" ref="E4:E13" si="0">B4*C4*D4</f>
         <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <v>36</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>8</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>20</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>5760</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>20</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>6</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>19</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>2280</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>19</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>7</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>21</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>2793</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>34</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>6</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>22</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>4488</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>30</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>7</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>20</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>25</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <v>8</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>19</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <v>31</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="15">
         <v>8</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>22</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>5456</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>33</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>7</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>21</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
         <v>4851</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <v>15</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>6</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>19</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <f t="shared" si="0"/>
         <v>1710</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="17">
         <f>SUM(E3:E13)</f>
         <v>41578</v>
       </c>
@@ -1355,14 +1724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,11 +1742,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1394,10 +1763,10 @@
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="18">
         <v>178684</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="18">
         <v>11022</v>
       </c>
     </row>
@@ -1405,10 +1774,10 @@
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="18">
         <v>91655</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="18">
         <v>8742</v>
       </c>
     </row>
@@ -1416,10 +1785,10 @@
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="18">
         <v>76174</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="18">
         <v>7729</v>
       </c>
     </row>
@@ -1427,10 +1796,10 @@
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="18">
         <v>14756</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="18">
         <v>5527</v>
       </c>
     </row>
@@ -1443,14 +1812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,164 +1829,164 @@
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="43">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="44">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="43">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="43">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="44">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="43">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="43">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="44">
         <v>4</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="43">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="43">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="43">
         <v>5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="43">
         <v>5</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="44">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="43">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="44">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="44">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="45">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="45">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="45">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="43">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="43">
         <v>5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="45">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="44">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="44">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="43">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="45">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="43">
         <v>5</v>
       </c>
     </row>
